--- a/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,61</t>
+          <t>0,51; 5,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,33</t>
+          <t>1,27; 6,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,04</t>
+          <t>1,24; 4,81</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,37</t>
+          <t>0,37; 3,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,2</t>
+          <t>1,1; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,43</t>
+          <t>1,12; 3,59</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,71</t>
+          <t>1,07; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,18</t>
+          <t>1,77; 4,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,44</t>
+          <t>1,75; 3,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,91</t>
+          <t>0,86; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,68</t>
+          <t>4,08; 6,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,38</t>
+          <t>2,71; 4,48</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,07</t>
+          <t>0,93; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,0</t>
+          <t>4,78; 8,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,0</t>
+          <t>3,11; 5,01</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,57</t>
+          <t>3,85; 6,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,39</t>
+          <t>5,21; 9,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,78</t>
+          <t>5,24; 7,74</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,1</t>
+          <t>1,96; 3,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,83</t>
+          <t>4,5; 5,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,78</t>
+          <t>0,51; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,89</t>
+          <t>1,23; 7,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,81</t>
+          <t>1,23; 5,04</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,92</t>
+          <t>0,5; 4,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,45</t>
+          <t>1,0; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,59</t>
+          <t>1,02; 3,43</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,75</t>
+          <t>1,03; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,01</t>
+          <t>1,78; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,47</t>
+          <t>1,72; 3,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,88</t>
+          <t>0,81; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,82</t>
+          <t>4,03; 6,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,48</t>
+          <t>2,7; 4,38</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,06</t>
+          <t>0,82; 3,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,02</t>
+          <t>4,9; 8,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,01</t>
+          <t>3,11; 5,0</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,54</t>
+          <t>3,79; 6,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,34</t>
+          <t>5,41; 9,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,74</t>
+          <t>5,37; 7,78</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,02</t>
+          <t>1,96; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,81</t>
+          <t>4,47; 5,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,61</t>
+          <t>0,47; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,33</t>
+          <t>1,28; 7,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,04</t>
+          <t>1,22; 5,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,37</t>
+          <t>0,54; 4,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,2</t>
+          <t>0,85; 3,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,43</t>
+          <t>0,95; 3,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,71</t>
+          <t>1,08; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,14 +689,14 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,44</t>
+          <t>1,72; 3,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,91</t>
+          <t>0,4; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,68</t>
+          <t>3,76; 6,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,38</t>
+          <t>1,79; 3,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,07</t>
+          <t>0,84; 3,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,0</t>
+          <t>4,92; 8,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,0</t>
+          <t>3,13; 5,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,09%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,57</t>
+          <t>3,71; 7,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,39</t>
+          <t>1,92; 7,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,78</t>
+          <t>2,42; 6,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,1</t>
+          <t>2,98; 6,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,83</t>
+          <t>8,03; 12,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,32</t>
+          <t>6,35; 9,34</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 2,98</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 5,63</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,06</t>
+          <t>0,48; 5,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,63</t>
+          <t>1,32; 7,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,06</t>
+          <t>1,18; 4,75</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,59</t>
+          <t>0,57; 4,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,7</t>
+          <t>0,9; 3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,43</t>
+          <t>0,99; 3,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,82</t>
+          <t>1,04; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,18</t>
+          <t>1,83; 4,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,46</t>
+          <t>1,76; 3,45</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,28</t>
+          <t>0,36; 2,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,55</t>
+          <t>3,91; 6,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,93</t>
+          <t>1,72; 3,92</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,13</t>
+          <t>0,89; 3,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,05</t>
+          <t>4,97; 7,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,03</t>
+          <t>3,08; 5,05</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,59</t>
+          <t>3,79; 7,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,92</t>
+          <t>1,8; 8,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,89</t>
+          <t>2,74; 7,01</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,92</t>
+          <t>2,96; 6,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,11</t>
+          <t>7,91; 12,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,34</t>
+          <t>6,43; 9,45</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,98</t>
+          <t>1,74; 2,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 5,63</t>
+          <t>3,98; 5,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,09; 4,1</t>
+          <t>3,15; 4,16</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un podólogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7259</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10889</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18148</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1934; 21489</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4126; 24021</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8398; 33876</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7583</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10285</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17868</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2394; 20237</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4588; 19039</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9237; 31939</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11496</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15232</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26728</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5598; 20049</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9934; 23116</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18994; 37216</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10597</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36444</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47041</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3179; 20135</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27900; 46723</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27533; 62814</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9748</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34591</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44340</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4982; 17813</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27210; 43300</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34192; 56014</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>19996</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29713</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>49709</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13941; 27749</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10961; 48935</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26725; 68436</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12947</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>42242</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>55189</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8377; 19178</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33641; 51030</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>45541; 66878</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>79627</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>179396</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>259023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>60157; 102574</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>145653; 205827</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>223998; 295999</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>